--- a/CSC_adopted_March_2019/data-model/ONE Record data model v12.9.xlsx
+++ b/CSC_adopted_March_2019/data-model/ONE Record data model v12.9.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrab\Documents\Github\ONE-Record\CSC_adopted_March_2019\data-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A8F13A-9BCD-4BDF-99D2-AE5777EAFB2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E190DE6B-97E3-4ADC-B7F0-07D07CB05E11}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SchemaSpecifications" sheetId="31" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SchemaSpecifications!$A$3:$N$477</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SchemaSpecifications!$A$3:$N$476</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="Patrick Murray - Personal View" guid="{E422D10D-9C2B-454B-AFCD-871CD9035CE7}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1020" windowHeight="597" tabRatio="802" activeSheetId="3"/>
     <customWorkbookView name="Constantin Syridis - Personal View" guid="{4858CC2B-A96C-4668-8DB3-ED537C11C704}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1026" windowHeight="500" tabRatio="802" activeSheetId="1"/>
-    <customWorkbookView name="Patrick Murray - Personal View" guid="{E422D10D-9C2B-454B-AFCD-871CD9035CE7}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1020" windowHeight="597" tabRatio="802" activeSheetId="3"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3353" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="631">
   <si>
     <t/>
   </si>
@@ -1389,9 +1389,6 @@
     <t>Details of piece(s)</t>
   </si>
   <si>
-    <t>PIECE_GROUPING_TOTALS</t>
-  </si>
-  <si>
     <t>TotalPrepaidCharges</t>
   </si>
   <si>
@@ -1719,9 +1716,6 @@
     <t>Details of individual transport segments</t>
   </si>
   <si>
-    <t>House waybill line totals</t>
-  </si>
-  <si>
     <t>Total weight charge amount (prepaid)</t>
   </si>
   <si>
@@ -1756,9 +1750,6 @@
   </si>
   <si>
     <t>Total collect charges amount</t>
-  </si>
-  <si>
-    <t>HouseWaybillLineTotals</t>
   </si>
   <si>
     <t xml:space="preserve">Location latitude </t>
@@ -2622,10 +2613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N477"/>
+  <dimension ref="A1:N476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A292" sqref="A292:XFD292"/>
+    <sheetView tabSelected="1" topLeftCell="A364" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A383" sqref="A383:XFD383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2650,7 +2641,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B1" s="30"/>
       <c r="D1" s="5"/>
@@ -2698,10 +2689,10 @@
         <v>29</v>
       </c>
       <c r="F4" s="58" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G4" s="58" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>25</v>
@@ -2710,7 +2701,7 @@
         <v>128</v>
       </c>
       <c r="J4" s="59" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="K4" s="59" t="s">
         <v>26</v>
@@ -2726,7 +2717,7 @@
     <row r="5" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="31"/>
       <c r="C5" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E5" s="31">
         <v>0</v>
@@ -2735,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>0</v>
@@ -2751,21 +2742,21 @@
         <v>0</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="32"/>
       <c r="C6" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="51">
         <v>1</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>0</v>
@@ -2790,14 +2781,14 @@
       <c r="A7" s="13"/>
       <c r="B7" s="32"/>
       <c r="C7" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="51">
         <v>1</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>0</v>
@@ -2815,7 +2806,7 @@
       </c>
       <c r="M7" s="13"/>
       <c r="N7" s="17" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -2865,7 +2856,7 @@
         <v>58</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J10" s="31" t="s">
         <v>155</v>
@@ -2894,7 +2885,7 @@
         <v>69</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J11" s="31" t="s">
         <v>155</v>
@@ -2923,7 +2914,7 @@
         <v>59</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J12" s="31" t="s">
         <v>155</v>
@@ -2964,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -2985,7 +2976,7 @@
         <v>409</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J15" s="31" t="s">
         <v>155</v>
@@ -3016,7 +3007,7 @@
         <v>99</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J16" s="31" t="s">
         <v>155</v>
@@ -3056,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -3075,7 +3066,7 @@
         <v>60</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J19" s="31" t="s">
         <v>155</v>
@@ -3104,7 +3095,7 @@
         <v>61</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J20" s="31" t="s">
         <v>155</v>
@@ -3133,7 +3124,7 @@
         <v>62</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J21" s="31" t="s">
         <v>155</v>
@@ -3162,7 +3153,7 @@
         <v>15</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J22" s="31" t="s">
         <v>155</v>
@@ -3243,7 +3234,7 @@
         <v>358</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J25" s="31" t="s">
         <v>155</v>
@@ -3254,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="14" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -3275,7 +3266,7 @@
         <v>359</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J26" s="31" t="s">
         <v>155</v>
@@ -3286,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -3307,7 +3298,7 @@
         <v>360</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J27" s="31" t="s">
         <v>155</v>
@@ -3425,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="I31" s="18" t="s">
         <v>0</v>
@@ -3573,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -3605,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="17" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -3639,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="N37" s="17" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="38" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -3691,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I39" s="18" t="s">
         <v>0</v>
@@ -3817,7 +3808,7 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="44" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -3881,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="46" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -4241,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I57" s="18" t="s">
         <v>0</v>
@@ -4255,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="N57" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="58" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -4419,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="N62" s="17" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="63" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -4600,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="N68" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="69" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -4618,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I69" s="18"/>
       <c r="J69" s="32" t="s">
@@ -4630,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="N69" s="17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="70" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -4728,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="N72" s="17" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="73" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -4796,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="N74" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="75" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -4898,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="N77" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="79" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -4961,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="N80" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="81" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -4977,7 +4968,7 @@
       </c>
       <c r="G81" s="15"/>
       <c r="H81" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I81" s="15" t="s">
         <v>104</v>
@@ -5054,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="N84" s="14" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="85" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -5075,7 +5066,7 @@
         <v>389</v>
       </c>
       <c r="I85" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J85" s="31" t="s">
         <v>155</v>
@@ -5151,7 +5142,7 @@
       </c>
       <c r="M88" s="13"/>
       <c r="N88" s="17" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="89" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -5571,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="N102" s="17" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="103" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -5671,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="N105" s="17" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="106" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -5910,7 +5901,7 @@
         <v>63</v>
       </c>
       <c r="I113" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J113" s="31" t="s">
         <v>155</v>
@@ -6061,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="N118" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="119" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -6119,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="N120" s="17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="121" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -6148,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="N121" s="17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="122" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -6351,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="N128" s="17" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="129" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -6438,7 +6429,7 @@
       </c>
       <c r="M131" s="13"/>
       <c r="N131" s="17" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="132" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -6549,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="N136" s="17" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="137" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -6583,7 +6574,7 @@
       </c>
       <c r="M137" s="13"/>
       <c r="N137" s="17" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="138" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -6899,7 +6890,7 @@
       </c>
       <c r="M147" s="13"/>
       <c r="N147" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="148" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -6933,7 +6924,7 @@
       </c>
       <c r="M148" s="13"/>
       <c r="N148" s="17" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="149" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -7056,7 +7047,7 @@
       </c>
       <c r="M152" s="13"/>
       <c r="N152" s="17" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="153" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -7141,7 +7132,7 @@
       </c>
       <c r="M155" s="13"/>
       <c r="N155" s="17" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="156" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -7171,7 +7162,7 @@
       </c>
       <c r="M156" s="13"/>
       <c r="N156" s="17" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="157" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -7203,7 +7194,7 @@
       </c>
       <c r="M157" s="13"/>
       <c r="N157" s="17" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="158" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -7329,7 +7320,7 @@
       </c>
       <c r="G162" s="15"/>
       <c r="H162" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I162" s="15" t="s">
         <v>433</v>
@@ -7340,7 +7331,7 @@
       <c r="K162" s="31"/>
       <c r="L162" s="31"/>
       <c r="N162" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="163" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -7356,7 +7347,7 @@
       </c>
       <c r="G163" s="15"/>
       <c r="H163" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I163" s="15" t="s">
         <v>433</v>
@@ -7367,7 +7358,7 @@
       <c r="K163" s="31"/>
       <c r="L163" s="31"/>
       <c r="N163" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="164" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -7396,7 +7387,7 @@
         <v>17</v>
       </c>
       <c r="N164" s="14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="165" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -7653,7 +7644,7 @@
         <v>17</v>
       </c>
       <c r="N173" s="14" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="174" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -7735,7 +7726,7 @@
       </c>
       <c r="G177" s="13"/>
       <c r="H177" s="16" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I177" s="18"/>
       <c r="J177" s="32" t="s">
@@ -7771,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="N178" s="17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="179" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -7942,7 +7933,7 @@
       </c>
       <c r="M185" s="13"/>
       <c r="N185" s="17" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="186" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8109,7 +8100,7 @@
       </c>
       <c r="M190" s="13"/>
       <c r="N190" s="17" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="191" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8127,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="H191" s="16" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I191" s="18"/>
       <c r="J191" s="32" t="s">
@@ -8158,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="H192" s="16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I192" s="18"/>
       <c r="J192" s="32" t="s">
@@ -8202,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="N193" s="17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="194" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8251,10 +8242,10 @@
         <v>0</v>
       </c>
       <c r="H195" s="20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I195" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J195" s="31" t="s">
         <v>155</v>
@@ -8266,7 +8257,7 @@
         <v>0</v>
       </c>
       <c r="N195" s="14" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="196" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -8285,7 +8276,7 @@
         <v>423</v>
       </c>
       <c r="I196" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J196" s="31" t="s">
         <v>155</v>
@@ -8293,7 +8284,7 @@
       <c r="K196" s="31"/>
       <c r="L196" s="31"/>
       <c r="N196" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
@@ -8478,7 +8469,7 @@
       </c>
       <c r="M204" s="13"/>
       <c r="N204" s="17" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="205" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -8512,7 +8503,7 @@
       </c>
       <c r="M205" s="13"/>
       <c r="N205" s="17" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="206" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -8563,7 +8554,7 @@
         <v>0</v>
       </c>
       <c r="H207" s="20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I207" s="15"/>
       <c r="J207" s="31" t="s">
@@ -8576,7 +8567,7 @@
         <v>17</v>
       </c>
       <c r="N207" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="208" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8588,7 +8579,7 @@
         <v>2</v>
       </c>
       <c r="F208" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G208" s="18" t="s">
         <v>0</v>
@@ -8607,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="N208" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="209" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8619,7 +8610,7 @@
         <v>2</v>
       </c>
       <c r="F209" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G209" s="18" t="s">
         <v>0</v>
@@ -8638,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="N209" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="210" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8650,7 +8641,7 @@
         <v>2</v>
       </c>
       <c r="F210" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G210" s="18" t="s">
         <v>0</v>
@@ -8669,7 +8660,7 @@
         <v>17</v>
       </c>
       <c r="N210" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="211" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8681,7 +8672,7 @@
         <v>2</v>
       </c>
       <c r="F211" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G211" s="18" t="s">
         <v>0</v>
@@ -8700,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="N211" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="212" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -8712,7 +8703,7 @@
         <v>2</v>
       </c>
       <c r="F212" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G212" s="15" t="s">
         <v>0</v>
@@ -8733,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="N212" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.2">
@@ -8793,7 +8784,7 @@
       <c r="L215" s="32"/>
       <c r="M215" s="13"/>
       <c r="N215" s="17" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="216" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -8854,7 +8845,7 @@
       </c>
       <c r="M217" s="13"/>
       <c r="N217" s="17" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="218" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -8888,7 +8879,7 @@
       </c>
       <c r="M218" s="13"/>
       <c r="N218" s="17" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="219" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -8922,7 +8913,7 @@
       </c>
       <c r="M219" s="13"/>
       <c r="N219" s="17" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="220" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -9066,7 +9057,7 @@
       <c r="L225" s="32"/>
       <c r="M225" s="13"/>
       <c r="N225" s="17" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="226" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -9082,7 +9073,7 @@
       </c>
       <c r="G226" s="18"/>
       <c r="H226" s="22" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I226" s="18"/>
       <c r="J226" s="32" t="s">
@@ -9093,7 +9084,7 @@
       </c>
       <c r="L226" s="32"/>
       <c r="N226" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="227" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9122,7 +9113,7 @@
       </c>
       <c r="L227" s="31"/>
       <c r="N227" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="228" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -9149,7 +9140,7 @@
       </c>
       <c r="L228" s="32"/>
       <c r="N228" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="229" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -9183,7 +9174,7 @@
       </c>
       <c r="M229" s="13"/>
       <c r="N229" s="17" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="230" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9237,7 +9228,7 @@
         <v>17</v>
       </c>
       <c r="N231" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="232" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -9262,7 +9253,7 @@
       <c r="K232" s="32"/>
       <c r="L232" s="32"/>
       <c r="N232" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="233" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9278,7 +9269,7 @@
       </c>
       <c r="G233" s="15"/>
       <c r="H233" s="26" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I233" s="15" t="s">
         <v>104</v>
@@ -9289,7 +9280,7 @@
       <c r="K233" s="31"/>
       <c r="L233" s="31"/>
       <c r="N233" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="234" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -9319,7 +9310,7 @@
       </c>
       <c r="M234" s="13"/>
       <c r="N234" s="17" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="235" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -9349,7 +9340,7 @@
       </c>
       <c r="M235" s="13"/>
       <c r="N235" s="17" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="236" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -9459,7 +9450,7 @@
         <v>17</v>
       </c>
       <c r="N240" s="14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="241" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9475,7 +9466,7 @@
       </c>
       <c r="G241" s="15"/>
       <c r="H241" s="20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I241" s="15" t="s">
         <v>27</v>
@@ -9502,7 +9493,7 @@
       </c>
       <c r="G242" s="15"/>
       <c r="H242" s="20" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I242" s="15" t="s">
         <v>27</v>
@@ -9529,7 +9520,7 @@
       </c>
       <c r="G243" s="15"/>
       <c r="H243" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I243" s="15"/>
       <c r="J243" s="31" t="s">
@@ -9540,7 +9531,7 @@
         <v>17</v>
       </c>
       <c r="N243" s="14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="244" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -9554,7 +9545,7 @@
         <v>2</v>
       </c>
       <c r="F244" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G244" s="18"/>
       <c r="H244" s="22" t="s">
@@ -9568,7 +9559,7 @@
       <c r="L244" s="32"/>
       <c r="M244" s="13"/>
       <c r="N244" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="245" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -9580,7 +9571,7 @@
         <v>2</v>
       </c>
       <c r="F245" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G245" s="18"/>
       <c r="H245" s="22" t="s">
@@ -9593,7 +9584,7 @@
       <c r="K245" s="32"/>
       <c r="L245" s="32"/>
       <c r="N245" s="17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="246" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -9605,7 +9596,7 @@
         <v>2</v>
       </c>
       <c r="F246" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G246" s="18"/>
       <c r="H246" s="22" t="s">
@@ -9622,7 +9613,7 @@
         <v>0</v>
       </c>
       <c r="N246" s="17" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="247" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9636,7 +9627,7 @@
         <v>2</v>
       </c>
       <c r="F247" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G247" s="15"/>
       <c r="H247" s="24" t="s">
@@ -9653,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="N247" s="14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="248" spans="1:14" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -9687,7 +9678,7 @@
       </c>
       <c r="M248" s="13"/>
       <c r="N248" s="19" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="249" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -9721,7 +9712,7 @@
       </c>
       <c r="M249" s="13"/>
       <c r="N249" s="19" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="250" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9781,7 +9772,7 @@
         <v>0</v>
       </c>
       <c r="N251" s="19" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="252" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -9797,7 +9788,7 @@
       </c>
       <c r="G252" s="18"/>
       <c r="H252" s="16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I252" s="18"/>
       <c r="J252" s="32" t="s">
@@ -9810,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="N252" s="19" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="253" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -9871,7 +9862,7 @@
       </c>
       <c r="M254" s="13"/>
       <c r="N254" s="17" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="255" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -9991,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="N258" s="17" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="259" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -10117,7 +10108,7 @@
         <v>17</v>
       </c>
       <c r="N263" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="264" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -10135,7 +10126,7 @@
       </c>
       <c r="G264" s="18"/>
       <c r="H264" s="16" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="I264" s="18"/>
       <c r="J264" s="32" t="s">
@@ -10147,7 +10138,7 @@
       <c r="L264" s="32"/>
       <c r="M264" s="13"/>
       <c r="N264" s="17" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="265" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -10204,7 +10195,7 @@
       <c r="L266" s="32"/>
       <c r="M266" s="13"/>
       <c r="N266" s="17" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="267" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -10229,7 +10220,7 @@
       <c r="K267" s="32"/>
       <c r="L267" s="32"/>
       <c r="N267" s="17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="268" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -10493,7 +10484,7 @@
         <v>0</v>
       </c>
       <c r="H277" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I277" s="18"/>
       <c r="J277" s="32" t="s">
@@ -10505,7 +10496,7 @@
       </c>
       <c r="M277" s="13"/>
       <c r="N277" s="17" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="278" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -10523,7 +10514,7 @@
         <v>0</v>
       </c>
       <c r="H278" s="16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I278" s="18"/>
       <c r="J278" s="32" t="s">
@@ -10568,7 +10559,7 @@
       </c>
       <c r="M279" s="13"/>
       <c r="N279" s="17" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="280" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -10604,7 +10595,7 @@
       </c>
       <c r="M280" s="13"/>
       <c r="N280" s="17" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="281" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -10622,7 +10613,7 @@
         <v>0</v>
       </c>
       <c r="H281" s="16" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I281" s="18"/>
       <c r="J281" s="32" t="s">
@@ -10635,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="N281" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="282" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -10666,7 +10657,7 @@
         <v>0</v>
       </c>
       <c r="N282" s="17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="283" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -10716,7 +10707,7 @@
         <v>0</v>
       </c>
       <c r="H284" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I284" s="15" t="s">
         <v>433</v>
@@ -10731,7 +10722,7 @@
         <v>0</v>
       </c>
       <c r="N284" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="285" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -10811,7 +10802,7 @@
         <v>271</v>
       </c>
       <c r="H287" s="65" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I287" s="35" t="s">
         <v>104</v>
@@ -10884,7 +10875,7 @@
       </c>
       <c r="L289" s="50"/>
       <c r="N289" s="66" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="290" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -10910,7 +10901,7 @@
       <c r="K290" s="31"/>
       <c r="L290" s="50"/>
       <c r="N290" s="66" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="291" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -10928,7 +10919,7 @@
         <v>271</v>
       </c>
       <c r="H291" s="65" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I291" s="35" t="s">
         <v>394</v>
@@ -10961,7 +10952,7 @@
         <v>271</v>
       </c>
       <c r="H292" s="65" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I292" s="35" t="s">
         <v>28</v>
@@ -11016,7 +11007,7 @@
         <v>271</v>
       </c>
       <c r="H294" s="65" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I294" s="35" t="s">
         <v>291</v>
@@ -11103,7 +11094,7 @@
         <v>0</v>
       </c>
       <c r="H297" s="22" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I297" s="18"/>
       <c r="J297" s="32" t="s">
@@ -11117,7 +11108,7 @@
       </c>
       <c r="M297" s="13"/>
       <c r="N297" s="17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="298" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -11137,7 +11128,7 @@
         <v>0</v>
       </c>
       <c r="H298" s="22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I298" s="18"/>
       <c r="J298" s="32" t="s">
@@ -11151,7 +11142,7 @@
       </c>
       <c r="M298" s="13"/>
       <c r="N298" s="17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="299" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -11237,7 +11228,7 @@
         <v>93</v>
       </c>
       <c r="I301" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J301" s="31" t="s">
         <v>155</v>
@@ -11335,7 +11326,7 @@
         <v>93</v>
       </c>
       <c r="I304" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J304" s="31" t="s">
         <v>155</v>
@@ -11433,7 +11424,7 @@
         <v>93</v>
       </c>
       <c r="I307" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J307" s="31" t="s">
         <v>155</v>
@@ -11463,7 +11454,7 @@
         <v>271</v>
       </c>
       <c r="H308" s="65" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I308" s="35"/>
       <c r="J308" s="62" t="s">
@@ -11486,7 +11477,7 @@
         <v>2</v>
       </c>
       <c r="F309" s="35" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G309" s="15"/>
       <c r="H309" s="24" t="s">
@@ -11531,7 +11522,7 @@
       </c>
       <c r="M310" s="13"/>
       <c r="N310" s="17" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="311" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -11633,7 +11624,7 @@
         <v>2</v>
       </c>
       <c r="F314" s="35" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G314" s="15"/>
       <c r="H314" s="24" t="s">
@@ -11718,7 +11709,7 @@
         <v>2</v>
       </c>
       <c r="F317" s="35" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G317" s="15"/>
       <c r="H317" s="24" t="s">
@@ -11809,7 +11800,7 @@
         <v>93</v>
       </c>
       <c r="I320" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J320" s="31" t="s">
         <v>155</v>
@@ -11849,7 +11840,7 @@
       </c>
       <c r="M321" s="13"/>
       <c r="N321" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="322" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -11897,7 +11888,7 @@
         <v>271</v>
       </c>
       <c r="H323" s="65" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I323" s="35"/>
       <c r="J323" s="62" t="s">
@@ -11920,7 +11911,7 @@
         <v>2</v>
       </c>
       <c r="F324" s="35" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G324" s="15"/>
       <c r="H324" s="24" t="s">
@@ -11958,7 +11949,7 @@
         <v>137</v>
       </c>
       <c r="I325" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J325" s="31" t="s">
         <v>155</v>
@@ -11968,7 +11959,7 @@
         <v>0</v>
       </c>
       <c r="N325" s="14" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="326" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -11989,7 +11980,7 @@
         <v>138</v>
       </c>
       <c r="I326" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J326" s="31" t="s">
         <v>155</v>
@@ -11999,7 +11990,7 @@
         <v>0</v>
       </c>
       <c r="N326" s="14" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="327" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -12020,7 +12011,7 @@
         <v>139</v>
       </c>
       <c r="I327" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J327" s="31" t="s">
         <v>155</v>
@@ -12032,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="N327" s="14" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="328" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -12053,7 +12044,7 @@
         <v>135</v>
       </c>
       <c r="I328" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J328" s="31" t="s">
         <v>155</v>
@@ -12063,7 +12054,7 @@
         <v>0</v>
       </c>
       <c r="N328" s="14" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="329" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -12084,7 +12075,7 @@
         <v>136</v>
       </c>
       <c r="I329" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J329" s="31" t="s">
         <v>155</v>
@@ -12094,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="N329" s="14" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="330" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -12112,10 +12103,10 @@
         <v>0</v>
       </c>
       <c r="H330" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I330" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J330" s="31" t="s">
         <v>155</v>
@@ -12127,7 +12118,7 @@
         <v>0</v>
       </c>
       <c r="N330" s="14" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="331" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -12139,7 +12130,7 @@
         <v>2</v>
       </c>
       <c r="F331" s="35" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G331" s="15"/>
       <c r="H331" s="24" t="s">
@@ -12175,7 +12166,7 @@
         <v>137</v>
       </c>
       <c r="I332" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J332" s="31" t="s">
         <v>155</v>
@@ -12185,7 +12176,7 @@
         <v>0</v>
       </c>
       <c r="N332" s="14" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="333" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -12206,7 +12197,7 @@
         <v>138</v>
       </c>
       <c r="I333" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J333" s="31" t="s">
         <v>155</v>
@@ -12216,7 +12207,7 @@
         <v>0</v>
       </c>
       <c r="N333" s="14" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="334" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -12237,7 +12228,7 @@
         <v>139</v>
       </c>
       <c r="I334" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J334" s="31" t="s">
         <v>155</v>
@@ -12249,7 +12240,7 @@
         <v>0</v>
       </c>
       <c r="N334" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="335" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -12270,7 +12261,7 @@
         <v>135</v>
       </c>
       <c r="I335" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J335" s="31" t="s">
         <v>155</v>
@@ -12280,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="N335" s="14" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="336" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -12301,7 +12292,7 @@
         <v>136</v>
       </c>
       <c r="I336" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J336" s="31" t="s">
         <v>155</v>
@@ -12311,7 +12302,7 @@
         <v>0</v>
       </c>
       <c r="N336" s="14" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="337" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -12329,10 +12320,10 @@
         <v>0</v>
       </c>
       <c r="H337" s="26" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I337" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J337" s="31" t="s">
         <v>155</v>
@@ -12344,7 +12335,7 @@
         <v>0</v>
       </c>
       <c r="N337" s="14" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="338" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -12394,7 +12385,7 @@
         <v>140</v>
       </c>
       <c r="I339" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J339" s="31" t="s">
         <v>155</v>
@@ -12427,7 +12418,7 @@
         <v>141</v>
       </c>
       <c r="I340" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J340" s="31" t="s">
         <v>155</v>
@@ -12460,7 +12451,7 @@
         <v>142</v>
       </c>
       <c r="I341" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J341" s="31" t="s">
         <v>155</v>
@@ -12490,7 +12481,7 @@
         <v>271</v>
       </c>
       <c r="H342" s="65" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I342" s="35"/>
       <c r="J342" s="62" t="s">
@@ -12499,7 +12490,7 @@
       <c r="K342" s="31"/>
       <c r="L342" s="50"/>
       <c r="N342" s="66" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="343" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -12511,7 +12502,7 @@
         <v>2</v>
       </c>
       <c r="F343" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G343" s="18" t="s">
         <v>0</v>
@@ -12542,7 +12533,7 @@
         <v>2</v>
       </c>
       <c r="F344" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G344" s="18" t="s">
         <v>0</v>
@@ -12571,7 +12562,7 @@
         <v>2</v>
       </c>
       <c r="F345" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G345" s="18" t="s">
         <v>0</v>
@@ -12602,7 +12593,7 @@
         <v>2</v>
       </c>
       <c r="F346" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G346" s="18" t="s">
         <v>0</v>
@@ -12633,7 +12624,7 @@
         <v>2</v>
       </c>
       <c r="F347" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G347" s="15" t="s">
         <v>0</v>
@@ -12652,7 +12643,7 @@
         <v>0</v>
       </c>
       <c r="N347" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="348" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -12670,7 +12661,7 @@
         <v>271</v>
       </c>
       <c r="H348" s="65" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I348" s="35"/>
       <c r="J348" s="62" t="s">
@@ -12679,7 +12670,7 @@
       <c r="K348" s="31"/>
       <c r="L348" s="50"/>
       <c r="N348" s="66" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="349" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -12691,7 +12682,7 @@
         <v>2</v>
       </c>
       <c r="F349" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G349" s="18" t="s">
         <v>0</v>
@@ -12722,7 +12713,7 @@
         <v>2</v>
       </c>
       <c r="F350" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G350" s="18" t="s">
         <v>0</v>
@@ -12751,7 +12742,7 @@
         <v>2</v>
       </c>
       <c r="F351" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G351" s="18" t="s">
         <v>0</v>
@@ -12782,7 +12773,7 @@
         <v>2</v>
       </c>
       <c r="F352" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G352" s="18" t="s">
         <v>0</v>
@@ -12813,7 +12804,7 @@
         <v>2</v>
       </c>
       <c r="F353" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G353" s="15" t="s">
         <v>0</v>
@@ -12832,7 +12823,7 @@
         <v>0</v>
       </c>
       <c r="N353" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="354" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -12865,7 +12856,7 @@
         <v>0</v>
       </c>
       <c r="N354" s="17" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="355" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -12898,7 +12889,7 @@
         <v>0</v>
       </c>
       <c r="N355" s="17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="356" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -12931,7 +12922,7 @@
         <v>0</v>
       </c>
       <c r="N356" s="17" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="357" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -12964,7 +12955,7 @@
         <v>0</v>
       </c>
       <c r="N357" s="14" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="358" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -12997,7 +12988,7 @@
         <v>0</v>
       </c>
       <c r="N358" s="14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="359" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -13030,7 +13021,7 @@
         <v>0</v>
       </c>
       <c r="N359" s="14" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="360" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -13063,7 +13054,7 @@
         <v>0</v>
       </c>
       <c r="N360" s="14" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="361" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -13084,7 +13075,7 @@
         <v>74</v>
       </c>
       <c r="I361" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J361" s="31" t="s">
         <v>155</v>
@@ -13096,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="N361" s="14" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="362" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -13114,10 +13105,10 @@
         <v>0</v>
       </c>
       <c r="H362" s="20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I362" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J362" s="31" t="s">
         <v>155</v>
@@ -13129,7 +13120,7 @@
         <v>0</v>
       </c>
       <c r="N362" s="14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="364" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -13305,7 +13296,7 @@
         <v>0</v>
       </c>
       <c r="H369" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I369" s="18"/>
       <c r="J369" s="32" t="s">
@@ -13317,7 +13308,7 @@
       </c>
       <c r="M369" s="13"/>
       <c r="N369" s="17" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="370" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -13335,7 +13326,7 @@
         <v>0</v>
       </c>
       <c r="H370" s="16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I370" s="18"/>
       <c r="J370" s="32" t="s">
@@ -13380,7 +13371,7 @@
       </c>
       <c r="M371" s="13"/>
       <c r="N371" s="17" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="372" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -13416,7 +13407,7 @@
       </c>
       <c r="M372" s="13"/>
       <c r="N372" s="17" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="373" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -13434,7 +13425,7 @@
         <v>0</v>
       </c>
       <c r="H373" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I373" s="18"/>
       <c r="J373" s="32" t="s">
@@ -13447,7 +13438,7 @@
         <v>0</v>
       </c>
       <c r="N373" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="374" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -13465,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="H374" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I374" s="18"/>
       <c r="J374" s="32" t="s">
@@ -13478,7 +13469,7 @@
         <v>0</v>
       </c>
       <c r="N374" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="375" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -13528,7 +13519,7 @@
         <v>0</v>
       </c>
       <c r="H376" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I376" s="15" t="s">
         <v>433</v>
@@ -13543,7 +13534,7 @@
         <v>0</v>
       </c>
       <c r="N376" s="54" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="377" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -13623,7 +13614,7 @@
         <v>270</v>
       </c>
       <c r="H379" s="65" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I379" s="35" t="s">
         <v>104</v>
@@ -13691,7 +13682,7 @@
       <c r="K381" s="31"/>
       <c r="L381" s="50"/>
       <c r="N381" s="66" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="382" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -13742,20 +13733,18 @@
         <v>270</v>
       </c>
       <c r="H383" s="65" t="s">
-        <v>576</v>
+        <v>487</v>
       </c>
       <c r="I383" s="35" t="s">
-        <v>453</v>
+        <v>28</v>
       </c>
       <c r="J383" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="K383" s="31" t="s">
-        <v>3</v>
-      </c>
+      <c r="K383" s="31"/>
       <c r="L383" s="50"/>
       <c r="N383" s="66" t="s">
-        <v>563</v>
+        <v>204</v>
       </c>
     </row>
     <row r="384" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -13773,10 +13762,10 @@
         <v>270</v>
       </c>
       <c r="H384" s="65" t="s">
-        <v>488</v>
+        <v>268</v>
       </c>
       <c r="I384" s="35" t="s">
-        <v>28</v>
+        <v>267</v>
       </c>
       <c r="J384" s="62" t="s">
         <v>155</v>
@@ -13784,7 +13773,7 @@
       <c r="K384" s="31"/>
       <c r="L384" s="50"/>
       <c r="N384" s="66" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
     </row>
     <row r="385" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -13792,9 +13781,6 @@
       <c r="C385" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D385" s="12" t="s">
-        <v>0</v>
-      </c>
       <c r="E385" s="50">
         <v>1</v>
       </c>
@@ -13802,10 +13788,10 @@
         <v>270</v>
       </c>
       <c r="H385" s="65" t="s">
-        <v>268</v>
+        <v>489</v>
       </c>
       <c r="I385" s="35" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="J385" s="62" t="s">
         <v>155</v>
@@ -13813,7 +13799,7 @@
       <c r="K385" s="31"/>
       <c r="L385" s="50"/>
       <c r="N385" s="66" t="s">
-        <v>232</v>
+        <v>292</v>
       </c>
     </row>
     <row r="386" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -13821,6 +13807,9 @@
       <c r="C386" s="12" t="s">
         <v>270</v>
       </c>
+      <c r="D386" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="E386" s="50">
         <v>1</v>
       </c>
@@ -13828,10 +13817,10 @@
         <v>270</v>
       </c>
       <c r="H386" s="65" t="s">
-        <v>490</v>
+        <v>16</v>
       </c>
       <c r="I386" s="35" t="s">
-        <v>291</v>
+        <v>20</v>
       </c>
       <c r="J386" s="62" t="s">
         <v>155</v>
@@ -13839,7 +13828,7 @@
       <c r="K386" s="31"/>
       <c r="L386" s="50"/>
       <c r="N386" s="66" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
     </row>
     <row r="387" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -13857,45 +13846,50 @@
         <v>270</v>
       </c>
       <c r="H387" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="I387" s="35" t="s">
-        <v>20</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="I387" s="35"/>
       <c r="J387" s="62" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="K387" s="31"/>
       <c r="L387" s="50"/>
       <c r="N387" s="66" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="388" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B388" s="31"/>
-      <c r="C388" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="13"/>
+      <c r="B388" s="32"/>
+      <c r="C388" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="D388" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E388" s="50">
-        <v>1</v>
+      <c r="D388" s="13"/>
+      <c r="E388" s="51">
+        <v>2</v>
       </c>
       <c r="F388" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="H388" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="I388" s="35"/>
-      <c r="J388" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="K388" s="31"/>
-      <c r="L388" s="50"/>
-      <c r="N388" s="66" t="s">
-        <v>209</v>
+      <c r="G388" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H388" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="I388" s="18"/>
+      <c r="J388" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K388" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L388" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M388" s="13"/>
+      <c r="N388" s="17" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="389" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -13932,103 +13926,102 @@
         <v>533</v>
       </c>
     </row>
-    <row r="390" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="13"/>
-      <c r="B390" s="32"/>
-      <c r="C390" s="13" t="s">
+    <row r="390" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B390" s="31"/>
+      <c r="C390" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D390" s="13"/>
-      <c r="E390" s="51">
+      <c r="E390" s="50">
         <v>2</v>
       </c>
       <c r="F390" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="G390" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H390" s="22" t="s">
-        <v>532</v>
-      </c>
-      <c r="I390" s="18"/>
-      <c r="J390" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="K390" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="L390" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="M390" s="13"/>
-      <c r="N390" s="17" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="391" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B391" s="31"/>
-      <c r="C391" s="12" t="s">
+      <c r="G390" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H390" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="I390" s="15"/>
+      <c r="J390" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K390" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="L390" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N390" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="13"/>
+      <c r="B391" s="32"/>
+      <c r="C391" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="E391" s="50">
-        <v>2</v>
-      </c>
-      <c r="F391" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="G391" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H391" s="24" t="s">
+      <c r="D391" s="13"/>
+      <c r="E391" s="51">
+        <v>3</v>
+      </c>
+      <c r="F391" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="I391" s="15"/>
-      <c r="J391" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K391" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="L391" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N391" s="14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="392" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="13"/>
-      <c r="B392" s="32"/>
-      <c r="C392" s="13" t="s">
+      <c r="G391" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H391" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="I391" s="18"/>
+      <c r="J391" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K391" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L391" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M391" s="13"/>
+      <c r="N391" s="17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B392" s="31"/>
+      <c r="C392" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D392" s="13"/>
-      <c r="E392" s="51">
+      <c r="E392" s="50">
         <v>3</v>
       </c>
-      <c r="F392" s="18" t="s">
+      <c r="F392" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="G392" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H392" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="I392" s="18"/>
-      <c r="J392" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="K392" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="L392" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="M392" s="13"/>
-      <c r="N392" s="17" t="s">
-        <v>214</v>
+      <c r="G392" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H392" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="I392" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="J392" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="K392" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="L392" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N392" s="14" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="393" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -14037,71 +14030,70 @@
         <v>270</v>
       </c>
       <c r="E393" s="50">
+        <v>2</v>
+      </c>
+      <c r="F393" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="G393" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H393" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="I393" s="15"/>
+      <c r="J393" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K393" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="L393" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N393" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="13"/>
+      <c r="B394" s="32"/>
+      <c r="C394" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D394" s="13"/>
+      <c r="E394" s="51">
         <v>3</v>
       </c>
-      <c r="F393" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="G393" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H393" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="I393" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="J393" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="K393" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="L393" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N393" s="14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="394" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B394" s="31"/>
-      <c r="C394" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="E394" s="50">
-        <v>2</v>
-      </c>
-      <c r="F394" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="G394" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H394" s="24" t="s">
+      <c r="F394" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="I394" s="15"/>
-      <c r="J394" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K394" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="L394" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N394" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="395" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A395" s="13"/>
+      <c r="G394" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H394" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I394" s="18"/>
+      <c r="J394" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K394" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L394" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M394" s="13"/>
+      <c r="N394" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B395" s="32"/>
       <c r="C395" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="D395" s="13"/>
       <c r="E395" s="51">
         <v>3</v>
       </c>
@@ -14112,11 +14104,13 @@
         <v>0</v>
       </c>
       <c r="H395" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="I395" s="18"/>
-      <c r="J395" s="32" t="s">
-        <v>18</v>
+        <v>93</v>
+      </c>
+      <c r="I395" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="J395" s="31" t="s">
+        <v>155</v>
       </c>
       <c r="K395" s="32" t="s">
         <v>0</v>
@@ -14124,107 +14118,106 @@
       <c r="L395" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="M395" s="13"/>
       <c r="N395" s="17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="396" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B396" s="32"/>
-      <c r="C396" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B396" s="31"/>
+      <c r="C396" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="E396" s="51">
+      <c r="E396" s="50">
+        <v>2</v>
+      </c>
+      <c r="F396" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="G396" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H396" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I396" s="15"/>
+      <c r="J396" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K396" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="L396" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N396" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A397" s="13"/>
+      <c r="B397" s="32"/>
+      <c r="C397" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D397" s="13"/>
+      <c r="E397" s="51">
         <v>3</v>
       </c>
-      <c r="F396" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="G396" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H396" s="25" t="s">
+      <c r="F397" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G397" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H397" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="I397" s="18"/>
+      <c r="J397" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K397" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L397" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M397" s="13"/>
+      <c r="N397" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="398" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B398" s="31"/>
+      <c r="C398" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E398" s="50">
+        <v>3</v>
+      </c>
+      <c r="F398" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G398" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H398" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="I396" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="J396" s="31" t="s">
+      <c r="I398" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="J398" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="K396" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="L396" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="N396" s="17" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="397" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B397" s="31"/>
-      <c r="C397" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="E397" s="50">
-        <v>2</v>
-      </c>
-      <c r="F397" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="G397" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H397" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="I397" s="15"/>
-      <c r="J397" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K397" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="L397" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N397" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="398" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A398" s="13"/>
-      <c r="B398" s="32"/>
-      <c r="C398" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="D398" s="13"/>
-      <c r="E398" s="51">
-        <v>3</v>
-      </c>
-      <c r="F398" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G398" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H398" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="I398" s="18"/>
-      <c r="J398" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="K398" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="L398" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="M398" s="13"/>
-      <c r="N398" s="17" t="s">
-        <v>212</v>
+      <c r="K398" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="L398" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N398" s="14" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="399" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -14232,32 +14225,28 @@
       <c r="C399" s="12" t="s">
         <v>270</v>
       </c>
+      <c r="D399" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="E399" s="50">
-        <v>3</v>
-      </c>
-      <c r="F399" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G399" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H399" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="I399" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="J399" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="K399" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="L399" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N399" s="14" t="s">
-        <v>211</v>
+        <v>1</v>
+      </c>
+      <c r="F399" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="H399" s="65" t="s">
+        <v>490</v>
+      </c>
+      <c r="I399" s="35"/>
+      <c r="J399" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="K399" s="31"/>
+      <c r="L399" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="N399" s="66" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="400" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -14265,64 +14254,63 @@
       <c r="C400" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D400" s="12" t="s">
-        <v>0</v>
-      </c>
       <c r="E400" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F400" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="G400" s="15"/>
+      <c r="H400" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="I400" s="15"/>
+      <c r="J400" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K400" s="31"/>
+      <c r="L400" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N400" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="401" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A401" s="13"/>
+      <c r="B401" s="32"/>
+      <c r="C401" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="H400" s="65" t="s">
-        <v>491</v>
-      </c>
-      <c r="I400" s="35"/>
-      <c r="J400" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="K400" s="31"/>
-      <c r="L400" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="N400" s="66" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="401" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B401" s="31"/>
-      <c r="C401" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="E401" s="50">
-        <v>2</v>
-      </c>
-      <c r="F401" s="35" t="s">
-        <v>491</v>
-      </c>
-      <c r="G401" s="15"/>
-      <c r="H401" s="24" t="s">
+      <c r="D401" s="13"/>
+      <c r="E401" s="51">
+        <v>3</v>
+      </c>
+      <c r="F401" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="I401" s="15"/>
-      <c r="J401" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K401" s="31"/>
-      <c r="L401" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N401" s="14" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="402" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A402" s="13"/>
+      <c r="G401" s="18"/>
+      <c r="H401" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I401" s="18"/>
+      <c r="J401" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K401" s="32"/>
+      <c r="L401" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M401" s="13"/>
+      <c r="N401" s="17" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="402" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B402" s="32"/>
       <c r="C402" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="D402" s="13"/>
       <c r="E402" s="51">
         <v>3</v>
       </c>
@@ -14331,19 +14319,20 @@
       </c>
       <c r="G402" s="18"/>
       <c r="H402" s="25" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="I402" s="18"/>
       <c r="J402" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="K402" s="32"/>
+      <c r="K402" s="32" t="s">
+        <v>0</v>
+      </c>
       <c r="L402" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="M402" s="13"/>
       <c r="N402" s="17" t="s">
-        <v>595</v>
+        <v>236</v>
       </c>
     </row>
     <row r="403" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -14359,7 +14348,7 @@
       </c>
       <c r="G403" s="18"/>
       <c r="H403" s="25" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="I403" s="18"/>
       <c r="J403" s="32" t="s">
@@ -14372,14 +14361,16 @@
         <v>0</v>
       </c>
       <c r="N403" s="17" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="404" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="404" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A404" s="13"/>
       <c r="B404" s="32"/>
       <c r="C404" s="13" t="s">
         <v>270</v>
       </c>
+      <c r="D404" s="13"/>
       <c r="E404" s="51">
         <v>3</v>
       </c>
@@ -14388,7 +14379,7 @@
       </c>
       <c r="G404" s="18"/>
       <c r="H404" s="25" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="I404" s="18"/>
       <c r="J404" s="32" t="s">
@@ -14400,65 +14391,63 @@
       <c r="L404" s="32" t="s">
         <v>0</v>
       </c>
+      <c r="M404" s="13"/>
       <c r="N404" s="17" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="405" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A405" s="13"/>
-      <c r="B405" s="32"/>
-      <c r="C405" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="405" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B405" s="31"/>
+      <c r="C405" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D405" s="13"/>
-      <c r="E405" s="51">
+      <c r="E405" s="50">
+        <v>2</v>
+      </c>
+      <c r="F405" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="G405" s="15"/>
+      <c r="H405" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I405" s="15"/>
+      <c r="J405" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K405" s="31"/>
+      <c r="L405" s="31"/>
+      <c r="N405" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="406" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B406" s="32"/>
+      <c r="C406" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E406" s="51">
         <v>3</v>
       </c>
-      <c r="F405" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="G405" s="18"/>
-      <c r="H405" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="I405" s="18"/>
-      <c r="J405" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="K405" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="L405" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="M405" s="13"/>
-      <c r="N405" s="17" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="406" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B406" s="31"/>
-      <c r="C406" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="E406" s="50">
-        <v>2</v>
-      </c>
-      <c r="F406" s="35" t="s">
-        <v>491</v>
-      </c>
-      <c r="G406" s="15"/>
-      <c r="H406" s="24" t="s">
+      <c r="F406" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="I406" s="15"/>
-      <c r="J406" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K406" s="31"/>
-      <c r="L406" s="31"/>
-      <c r="N406" s="14" t="s">
-        <v>234</v>
+      <c r="G406" s="18"/>
+      <c r="H406" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I406" s="18"/>
+      <c r="J406" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K406" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L406" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N406" s="17" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="407" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -14474,11 +14463,11 @@
       </c>
       <c r="G407" s="18"/>
       <c r="H407" s="25" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="I407" s="18"/>
       <c r="J407" s="32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K407" s="32" t="s">
         <v>0</v>
@@ -14487,64 +14476,64 @@
         <v>0</v>
       </c>
       <c r="N407" s="17" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="408" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B408" s="32"/>
-      <c r="C408" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="408" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A408" s="12"/>
+      <c r="B408" s="31"/>
+      <c r="C408" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="E408" s="51">
+      <c r="D408" s="12"/>
+      <c r="E408" s="50">
+        <v>2</v>
+      </c>
+      <c r="F408" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="G408" s="15"/>
+      <c r="H408" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="I408" s="15"/>
+      <c r="J408" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K408" s="31"/>
+      <c r="L408" s="31"/>
+      <c r="M408" s="12"/>
+      <c r="N408" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="409" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B409" s="32"/>
+      <c r="C409" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E409" s="51">
         <v>3</v>
       </c>
-      <c r="F408" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G408" s="18"/>
-      <c r="H408" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="I408" s="18"/>
-      <c r="J408" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="K408" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="L408" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="N408" s="17" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="409" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A409" s="12"/>
-      <c r="B409" s="31"/>
-      <c r="C409" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="D409" s="12"/>
-      <c r="E409" s="50">
-        <v>2</v>
-      </c>
-      <c r="F409" s="35" t="s">
-        <v>491</v>
-      </c>
-      <c r="G409" s="15"/>
-      <c r="H409" s="24" t="s">
+      <c r="F409" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="I409" s="15"/>
-      <c r="J409" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K409" s="31"/>
-      <c r="L409" s="31"/>
-      <c r="M409" s="12"/>
-      <c r="N409" s="14" t="s">
-        <v>235</v>
+      <c r="G409" s="18"/>
+      <c r="H409" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="I409" s="18"/>
+      <c r="J409" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K409" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L409" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N409" s="17" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="410" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -14560,7 +14549,7 @@
       </c>
       <c r="G410" s="18"/>
       <c r="H410" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I410" s="18"/>
       <c r="J410" s="32" t="s">
@@ -14573,65 +14562,66 @@
         <v>0</v>
       </c>
       <c r="N410" s="17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="411" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B411" s="32"/>
-      <c r="C411" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="411" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B411" s="31"/>
+      <c r="C411" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="E411" s="51">
+      <c r="E411" s="50">
         <v>3</v>
       </c>
-      <c r="F411" s="13" t="s">
+      <c r="F411" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G411" s="18"/>
-      <c r="H411" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="I411" s="18"/>
-      <c r="J411" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="K411" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="L411" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="N411" s="17" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="412" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B412" s="31"/>
-      <c r="C412" s="12" t="s">
+      <c r="G411" s="15"/>
+      <c r="H411" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="I411" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="J411" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="K411" s="31"/>
+      <c r="L411" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N411" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="412" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A412" s="13"/>
+      <c r="B412" s="32"/>
+      <c r="C412" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="E412" s="50">
+      <c r="D412" s="13"/>
+      <c r="E412" s="51">
         <v>3</v>
       </c>
-      <c r="F412" s="12" t="s">
+      <c r="F412" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="G412" s="15"/>
-      <c r="H412" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="I412" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="J412" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="K412" s="31"/>
-      <c r="L412" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N412" s="14" t="s">
-        <v>244</v>
+      <c r="G412" s="18"/>
+      <c r="H412" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="I412" s="18"/>
+      <c r="J412" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K412" s="32"/>
+      <c r="L412" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M412" s="13"/>
+      <c r="N412" s="17" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="413" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -14649,7 +14639,7 @@
       </c>
       <c r="G413" s="18"/>
       <c r="H413" s="25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I413" s="18"/>
       <c r="J413" s="32" t="s">
@@ -14661,37 +14651,36 @@
       </c>
       <c r="M413" s="13"/>
       <c r="N413" s="17" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="414" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="13"/>
-      <c r="B414" s="32"/>
-      <c r="C414" s="13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B414" s="31"/>
+      <c r="C414" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D414" s="13"/>
-      <c r="E414" s="51">
+      <c r="D414" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E414" s="50">
+        <v>1</v>
+      </c>
+      <c r="F414" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="H414" s="65" t="s">
+        <v>492</v>
+      </c>
+      <c r="I414" s="35"/>
+      <c r="J414" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="K414" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F414" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="G414" s="18"/>
-      <c r="H414" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="I414" s="18"/>
-      <c r="J414" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="K414" s="32"/>
-      <c r="L414" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="M414" s="13"/>
-      <c r="N414" s="17" t="s">
-        <v>245</v>
+      <c r="L414" s="50"/>
+      <c r="N414" s="66" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="415" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -14699,28 +14688,28 @@
       <c r="C415" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D415" s="12" t="s">
-        <v>0</v>
-      </c>
       <c r="E415" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F415" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="H415" s="65" t="s">
-        <v>493</v>
-      </c>
-      <c r="I415" s="35"/>
-      <c r="J415" s="62" t="s">
+        <v>492</v>
+      </c>
+      <c r="G415" s="15"/>
+      <c r="H415" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="I415" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J415" s="31" t="s">
         <v>12</v>
       </c>
       <c r="K415" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="L415" s="50"/>
-      <c r="N415" s="66" t="s">
-        <v>312</v>
+        <v>127</v>
+      </c>
+      <c r="L415" s="31"/>
+      <c r="N415" s="14" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="416" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -14729,27 +14718,29 @@
         <v>270</v>
       </c>
       <c r="E416" s="50">
-        <v>2</v>
-      </c>
-      <c r="F416" s="35" t="s">
-        <v>493</v>
-      </c>
-      <c r="G416" s="15"/>
-      <c r="H416" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F416" s="15" t="s">
         <v>133</v>
       </c>
+      <c r="G416" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H416" s="26" t="s">
+        <v>137</v>
+      </c>
       <c r="I416" s="15" t="s">
-        <v>0</v>
+        <v>517</v>
       </c>
       <c r="J416" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K416" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="L416" s="31"/>
+        <v>155</v>
+      </c>
+      <c r="K416" s="31"/>
+      <c r="L416" s="31" t="s">
+        <v>0</v>
+      </c>
       <c r="N416" s="14" t="s">
-        <v>313</v>
+        <v>562</v>
       </c>
     </row>
     <row r="417" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -14767,10 +14758,10 @@
         <v>0</v>
       </c>
       <c r="H417" s="26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I417" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J417" s="31" t="s">
         <v>155</v>
@@ -14780,7 +14771,7 @@
         <v>0</v>
       </c>
       <c r="N417" s="14" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="418" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -14798,20 +14789,22 @@
         <v>0</v>
       </c>
       <c r="H418" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I418" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J418" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="K418" s="31"/>
+      <c r="K418" s="31" t="s">
+        <v>0</v>
+      </c>
       <c r="L418" s="31" t="s">
         <v>0</v>
       </c>
       <c r="N418" s="14" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="419" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -14829,22 +14822,20 @@
         <v>0</v>
       </c>
       <c r="H419" s="26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I419" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J419" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="K419" s="31" t="s">
-        <v>0</v>
-      </c>
+      <c r="K419" s="31"/>
       <c r="L419" s="31" t="s">
         <v>0</v>
       </c>
       <c r="N419" s="14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="420" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -14862,10 +14853,10 @@
         <v>0</v>
       </c>
       <c r="H420" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I420" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J420" s="31" t="s">
         <v>155</v>
@@ -14875,7 +14866,7 @@
         <v>0</v>
       </c>
       <c r="N420" s="14" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="421" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -14893,20 +14884,22 @@
         <v>0</v>
       </c>
       <c r="H421" s="26" t="s">
-        <v>136</v>
+        <v>453</v>
       </c>
       <c r="I421" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J421" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="K421" s="31"/>
+      <c r="K421" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="L421" s="31" t="s">
         <v>0</v>
       </c>
       <c r="N421" s="14" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="422" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -14915,31 +14908,25 @@
         <v>270</v>
       </c>
       <c r="E422" s="50">
-        <v>3</v>
-      </c>
-      <c r="F422" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="G422" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H422" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="I422" s="15" t="s">
-        <v>518</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F422" s="35" t="s">
+        <v>492</v>
+      </c>
+      <c r="G422" s="15"/>
+      <c r="H422" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="I422" s="15"/>
       <c r="J422" s="31" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="K422" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="L422" s="31" t="s">
-        <v>0</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="L422" s="31"/>
       <c r="N422" s="14" t="s">
-        <v>569</v>
+        <v>314</v>
       </c>
     </row>
     <row r="423" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -14948,25 +14935,29 @@
         <v>270</v>
       </c>
       <c r="E423" s="50">
-        <v>2</v>
-      </c>
-      <c r="F423" s="35" t="s">
-        <v>493</v>
-      </c>
-      <c r="G423" s="15"/>
-      <c r="H423" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F423" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="I423" s="15"/>
+      <c r="G423" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H423" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I423" s="15" t="s">
+        <v>517</v>
+      </c>
       <c r="J423" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K423" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="L423" s="31"/>
+        <v>155</v>
+      </c>
+      <c r="K423" s="31"/>
+      <c r="L423" s="31" t="s">
+        <v>0</v>
+      </c>
       <c r="N423" s="14" t="s">
-        <v>314</v>
+        <v>568</v>
       </c>
     </row>
     <row r="424" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -14984,10 +14975,10 @@
         <v>0</v>
       </c>
       <c r="H424" s="26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I424" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J424" s="31" t="s">
         <v>155</v>
@@ -14997,7 +14988,7 @@
         <v>0</v>
       </c>
       <c r="N424" s="14" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="425" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -15015,20 +15006,22 @@
         <v>0</v>
       </c>
       <c r="H425" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I425" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J425" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="K425" s="31"/>
+      <c r="K425" s="31" t="s">
+        <v>0</v>
+      </c>
       <c r="L425" s="31" t="s">
         <v>0</v>
       </c>
       <c r="N425" s="14" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="426" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -15046,22 +15039,20 @@
         <v>0</v>
       </c>
       <c r="H426" s="26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I426" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J426" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="K426" s="31" t="s">
-        <v>0</v>
-      </c>
+      <c r="K426" s="31"/>
       <c r="L426" s="31" t="s">
         <v>0</v>
       </c>
       <c r="N426" s="14" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="427" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -15079,10 +15070,10 @@
         <v>0</v>
       </c>
       <c r="H427" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I427" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J427" s="31" t="s">
         <v>155</v>
@@ -15092,7 +15083,7 @@
         <v>0</v>
       </c>
       <c r="N427" s="14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="428" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -15110,20 +15101,22 @@
         <v>0</v>
       </c>
       <c r="H428" s="26" t="s">
-        <v>136</v>
+        <v>454</v>
       </c>
       <c r="I428" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J428" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="K428" s="31"/>
+      <c r="K428" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="L428" s="31" t="s">
         <v>0</v>
       </c>
       <c r="N428" s="14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="429" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -15141,22 +15134,18 @@
         <v>0</v>
       </c>
       <c r="H429" s="26" t="s">
-        <v>455</v>
-      </c>
-      <c r="I429" s="15" t="s">
-        <v>518</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="I429" s="15"/>
       <c r="J429" s="31" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="K429" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="L429" s="31" t="s">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L429" s="31"/>
       <c r="N429" s="14" t="s">
-        <v>575</v>
+        <v>315</v>
       </c>
     </row>
     <row r="430" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -15165,27 +15154,31 @@
         <v>270</v>
       </c>
       <c r="E430" s="50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F430" s="15" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G430" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H430" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="I430" s="15"/>
+      <c r="H430" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="I430" s="15" t="s">
+        <v>517</v>
+      </c>
       <c r="J430" s="31" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="K430" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="L430" s="31"/>
+      <c r="L430" s="31" t="s">
+        <v>0</v>
+      </c>
       <c r="N430" s="14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="431" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -15203,10 +15196,10 @@
         <v>0</v>
       </c>
       <c r="H431" s="67" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I431" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J431" s="31" t="s">
         <v>155</v>
@@ -15218,7 +15211,7 @@
         <v>0</v>
       </c>
       <c r="N431" s="14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="432" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -15236,10 +15229,10 @@
         <v>0</v>
       </c>
       <c r="H432" s="67" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I432" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J432" s="31" t="s">
         <v>155</v>
@@ -15251,7 +15244,7 @@
         <v>0</v>
       </c>
       <c r="N432" s="14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="433" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -15259,59 +15252,57 @@
       <c r="C433" s="12" t="s">
         <v>270</v>
       </c>
+      <c r="D433" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="E433" s="50">
-        <v>4</v>
-      </c>
-      <c r="F433" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="G433" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H433" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="I433" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="J433" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="K433" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="L433" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N433" s="14" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="434" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B434" s="31"/>
-      <c r="C434" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F433" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="D434" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E434" s="50">
-        <v>1</v>
-      </c>
-      <c r="F434" s="35" t="s">
+      <c r="H433" s="65" t="s">
+        <v>491</v>
+      </c>
+      <c r="I433" s="35"/>
+      <c r="J433" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="K433" s="31"/>
+      <c r="L433" s="50"/>
+      <c r="N433" s="66" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="434" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B434" s="32"/>
+      <c r="C434" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="H434" s="65" t="s">
-        <v>492</v>
-      </c>
-      <c r="I434" s="35"/>
-      <c r="J434" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="K434" s="31"/>
-      <c r="L434" s="50"/>
-      <c r="N434" s="66" t="s">
-        <v>616</v>
+      <c r="E434" s="51">
+        <v>2</v>
+      </c>
+      <c r="F434" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="G434" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H434" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="I434" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J434" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K434" s="32"/>
+      <c r="L434" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N434" s="17" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="435" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -15323,17 +15314,15 @@
         <v>2</v>
       </c>
       <c r="F435" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G435" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H435" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="I435" s="18" t="s">
-        <v>0</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="I435" s="18"/>
       <c r="J435" s="32" t="s">
         <v>18</v>
       </c>
@@ -15342,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="N435" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="436" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -15354,24 +15343,26 @@
         <v>2</v>
       </c>
       <c r="F436" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G436" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H436" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="I436" s="18"/>
+        <v>39</v>
+      </c>
+      <c r="I436" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="J436" s="32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K436" s="32"/>
       <c r="L436" s="32" t="s">
         <v>0</v>
       </c>
       <c r="N436" s="17" t="s">
-        <v>106</v>
+        <v>215</v>
       </c>
     </row>
     <row r="437" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -15383,57 +15374,57 @@
         <v>2</v>
       </c>
       <c r="F437" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G437" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H437" s="22" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="I437" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J437" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K437" s="32"/>
       <c r="L437" s="32" t="s">
         <v>0</v>
       </c>
       <c r="N437" s="17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="438" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B438" s="32"/>
-      <c r="C438" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="438" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B438" s="31"/>
+      <c r="C438" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="E438" s="51">
+      <c r="E438" s="50">
         <v>2</v>
       </c>
-      <c r="F438" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="G438" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H438" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="I438" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J438" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="K438" s="32"/>
-      <c r="L438" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="N438" s="17" t="s">
-        <v>216</v>
+      <c r="F438" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="G438" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H438" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I438" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J438" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="K438" s="31"/>
+      <c r="L438" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N438" s="14" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="439" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -15441,57 +15432,57 @@
       <c r="C439" s="12" t="s">
         <v>270</v>
       </c>
+      <c r="D439" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="E439" s="50">
+        <v>1</v>
+      </c>
+      <c r="F439" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="H439" s="65" t="s">
+        <v>497</v>
+      </c>
+      <c r="I439" s="35"/>
+      <c r="J439" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="K439" s="31"/>
+      <c r="L439" s="50"/>
+      <c r="N439" s="66" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="440" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B440" s="32"/>
+      <c r="C440" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E440" s="51">
         <v>2</v>
       </c>
-      <c r="F439" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="G439" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H439" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="I439" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J439" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="K439" s="31"/>
-      <c r="L439" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N439" s="14" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="440" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B440" s="31"/>
-      <c r="C440" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="D440" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E440" s="50">
-        <v>1</v>
-      </c>
-      <c r="F440" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="H440" s="65" t="s">
-        <v>498</v>
-      </c>
-      <c r="I440" s="35"/>
-      <c r="J440" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="K440" s="31"/>
-      <c r="L440" s="50"/>
-      <c r="N440" s="66" t="s">
-        <v>633</v>
+      <c r="F440" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="G440" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H440" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="I440" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J440" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K440" s="32"/>
+      <c r="L440" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N440" s="17" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="441" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -15503,17 +15494,15 @@
         <v>2</v>
       </c>
       <c r="F441" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G441" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H441" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="I441" s="18" t="s">
-        <v>0</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="I441" s="18"/>
       <c r="J441" s="32" t="s">
         <v>18</v>
       </c>
@@ -15522,7 +15511,7 @@
         <v>0</v>
       </c>
       <c r="N441" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="442" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -15534,24 +15523,26 @@
         <v>2</v>
       </c>
       <c r="F442" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G442" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H442" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="I442" s="18"/>
+        <v>39</v>
+      </c>
+      <c r="I442" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="J442" s="32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K442" s="32"/>
       <c r="L442" s="32" t="s">
         <v>0</v>
       </c>
       <c r="N442" s="17" t="s">
-        <v>106</v>
+        <v>215</v>
       </c>
     </row>
     <row r="443" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -15563,88 +15554,90 @@
         <v>2</v>
       </c>
       <c r="F443" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G443" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H443" s="22" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="I443" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J443" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K443" s="32"/>
       <c r="L443" s="32" t="s">
         <v>0</v>
       </c>
       <c r="N443" s="17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="444" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B444" s="32"/>
-      <c r="C444" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="444" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B444" s="31"/>
+      <c r="C444" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="E444" s="51">
+      <c r="E444" s="50">
         <v>2</v>
       </c>
-      <c r="F444" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="G444" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H444" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="I444" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J444" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="K444" s="32"/>
-      <c r="L444" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="N444" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="445" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B445" s="31"/>
-      <c r="C445" s="12" t="s">
+      <c r="F444" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="G444" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H444" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I444" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J444" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="K444" s="31"/>
+      <c r="L444" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N444" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="445" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B445" s="32"/>
+      <c r="C445" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="E445" s="50">
-        <v>2</v>
-      </c>
-      <c r="F445" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="G445" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H445" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="I445" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J445" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="K445" s="31"/>
-      <c r="L445" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N445" s="14" t="s">
-        <v>463</v>
+      <c r="E445" s="51">
+        <v>1</v>
+      </c>
+      <c r="F445" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G445" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H445" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="I445" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J445" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K445" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L445" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N445" s="17" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="446" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -15662,7 +15655,7 @@
         <v>0</v>
       </c>
       <c r="H446" s="16" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="I446" s="18" t="s">
         <v>0</v>
@@ -15695,7 +15688,7 @@
         <v>0</v>
       </c>
       <c r="H447" s="16" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I447" s="18" t="s">
         <v>0</v>
@@ -15713,36 +15706,36 @@
         <v>551</v>
       </c>
     </row>
-    <row r="448" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B448" s="32"/>
-      <c r="C448" s="13" t="s">
+    <row r="448" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B448" s="31"/>
+      <c r="C448" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="E448" s="51">
-        <v>1</v>
-      </c>
-      <c r="F448" s="13" t="s">
+      <c r="E448" s="50">
+        <v>1</v>
+      </c>
+      <c r="F448" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="G448" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H448" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="I448" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J448" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="K448" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="L448" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="N448" s="17" t="s">
+      <c r="G448" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H448" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I448" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="J448" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="K448" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="L448" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N448" s="14" t="s">
         <v>552</v>
       </c>
     </row>
@@ -15761,7 +15754,7 @@
         <v>0</v>
       </c>
       <c r="H449" s="20" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="I449" s="15" t="s">
         <v>407</v>
@@ -15794,7 +15787,7 @@
         <v>0</v>
       </c>
       <c r="H450" s="20" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="I450" s="15" t="s">
         <v>407</v>
@@ -15827,7 +15820,7 @@
         <v>0</v>
       </c>
       <c r="H451" s="20" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="I451" s="15" t="s">
         <v>407</v>
@@ -15860,10 +15853,10 @@
         <v>0</v>
       </c>
       <c r="H452" s="20" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="I452" s="15" t="s">
-        <v>407</v>
+        <v>517</v>
       </c>
       <c r="J452" s="31" t="s">
         <v>155</v>
@@ -15893,10 +15886,10 @@
         <v>0</v>
       </c>
       <c r="H453" s="20" t="s">
-        <v>74</v>
+        <v>545</v>
       </c>
       <c r="I453" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J453" s="31" t="s">
         <v>155</v>
@@ -15911,66 +15904,64 @@
         <v>557</v>
       </c>
     </row>
-    <row r="454" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B454" s="31"/>
-      <c r="C454" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="E454" s="50">
-        <v>1</v>
-      </c>
-      <c r="F454" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="G454" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H454" s="20" t="s">
-        <v>546</v>
-      </c>
-      <c r="I454" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="J454" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="K454" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="L454" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N454" s="14" t="s">
-        <v>558</v>
+    <row r="455" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="12"/>
+      <c r="B455" s="31"/>
+      <c r="C455" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="E455" s="50">
+        <v>0</v>
+      </c>
+      <c r="F455" s="12"/>
+      <c r="G455" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H455" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="I455" s="15"/>
+      <c r="J455" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K455" s="31"/>
+      <c r="L455" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M455" s="12"/>
+      <c r="N455" s="14" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="456" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A456" s="12"/>
-      <c r="B456" s="31"/>
-      <c r="C456" s="12" t="s">
+      <c r="B456" s="32"/>
+      <c r="C456" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="E456" s="50">
-        <v>0</v>
-      </c>
-      <c r="F456" s="12"/>
-      <c r="G456" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H456" s="12" t="s">
+      <c r="E456" s="51">
+        <v>1</v>
+      </c>
+      <c r="F456" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="I456" s="15"/>
-      <c r="J456" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K456" s="31"/>
-      <c r="L456" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="M456" s="12"/>
-      <c r="N456" s="14" t="s">
-        <v>503</v>
+      <c r="G456" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H456" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="I456" s="18"/>
+      <c r="J456" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K456" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L456" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N456" s="17" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="457" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -15988,11 +15979,11 @@
         <v>0</v>
       </c>
       <c r="H457" s="16" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="I457" s="18"/>
       <c r="J457" s="32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K457" s="32" t="s">
         <v>3</v>
@@ -16001,38 +15992,40 @@
         <v>0</v>
       </c>
       <c r="N457" s="17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="458" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B458" s="32"/>
-      <c r="C458" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="458" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B458" s="31"/>
+      <c r="C458" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="E458" s="51">
-        <v>1</v>
-      </c>
-      <c r="F458" s="13" t="s">
+      <c r="E458" s="50">
+        <v>1</v>
+      </c>
+      <c r="F458" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="G458" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H458" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I458" s="18"/>
-      <c r="J458" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="K458" s="32" t="s">
+      <c r="G458" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H458" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="I458" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="J458" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="K458" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="L458" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="N458" s="17" t="s">
-        <v>251</v>
+      <c r="L458" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N458" s="14" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="459" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -16047,13 +16040,13 @@
         <v>272</v>
       </c>
       <c r="G459" s="15" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H459" s="20" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I459" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J459" s="31" t="s">
         <v>155</v>
@@ -16062,43 +16055,39 @@
         <v>3</v>
       </c>
       <c r="L459" s="31" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N459" s="14" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="460" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B460" s="31"/>
-      <c r="C460" s="12" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="460" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B460" s="32"/>
+      <c r="C460" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="E460" s="50">
-        <v>1</v>
-      </c>
-      <c r="F460" s="12" t="s">
+      <c r="E460" s="51">
+        <v>1</v>
+      </c>
+      <c r="F460" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="G460" s="15" t="s">
+      <c r="G460" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H460" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="I460" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="J460" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="K460" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="L460" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="N460" s="14" t="s">
-        <v>502</v>
+      <c r="H460" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="I460" s="18"/>
+      <c r="J460" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K460" s="32"/>
+      <c r="L460" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N460" s="17" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="461" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -16116,7 +16105,7 @@
         <v>5</v>
       </c>
       <c r="H461" s="16" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="I461" s="18"/>
       <c r="J461" s="32" t="s">
@@ -16130,97 +16119,99 @@
         <v>559</v>
       </c>
     </row>
-    <row r="462" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B462" s="32"/>
-      <c r="C462" s="13" t="s">
+    <row r="462" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B462" s="31"/>
+      <c r="C462" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="E462" s="51">
-        <v>1</v>
-      </c>
-      <c r="F462" s="13" t="s">
+      <c r="E462" s="50">
+        <v>1</v>
+      </c>
+      <c r="F462" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="G462" s="18" t="s">
+      <c r="G462" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H462" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I462" s="18"/>
-      <c r="J462" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="K462" s="32"/>
-      <c r="L462" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="N462" s="17" t="s">
+      <c r="H462" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I462" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="J462" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="K462" s="31"/>
+      <c r="L462" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N462" s="14" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="463" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B463" s="31"/>
-      <c r="C463" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="E463" s="50">
-        <v>1</v>
-      </c>
-      <c r="F463" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="G463" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H463" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="I463" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="J463" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="K463" s="31"/>
-      <c r="L463" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N463" s="14" t="s">
-        <v>561</v>
+    <row r="464" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="12"/>
+      <c r="B464" s="31"/>
+      <c r="C464" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E464" s="50">
+        <v>0</v>
+      </c>
+      <c r="F464" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G464" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H464" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I464" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J464" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K464" s="31"/>
+      <c r="L464" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M464" s="12"/>
+      <c r="N464" s="14" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="465" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A465" s="12"/>
-      <c r="B465" s="31"/>
-      <c r="C465" s="12" t="s">
+      <c r="B465" s="32"/>
+      <c r="C465" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E465" s="50">
-        <v>0</v>
-      </c>
-      <c r="F465" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G465" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H465" s="12" t="s">
+      <c r="E465" s="51">
+        <v>1</v>
+      </c>
+      <c r="F465" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I465" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="J465" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K465" s="31"/>
-      <c r="L465" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="M465" s="12"/>
-      <c r="N465" s="14" t="s">
-        <v>337</v>
+      <c r="G465" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H465" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="I465" s="18"/>
+      <c r="J465" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K465" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L465" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N465" s="17" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="466" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -16238,11 +16229,13 @@
         <v>0</v>
       </c>
       <c r="H466" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="I466" s="18"/>
+        <v>39</v>
+      </c>
+      <c r="I466" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="J466" s="32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K466" s="32" t="s">
         <v>3</v>
@@ -16251,14 +16244,16 @@
         <v>0</v>
       </c>
       <c r="N466" s="17" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="467" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="467" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="13"/>
       <c r="B467" s="32"/>
       <c r="C467" s="13" t="s">
         <v>30</v>
       </c>
+      <c r="D467" s="13"/>
       <c r="E467" s="51">
         <v>1</v>
       </c>
@@ -16269,22 +16264,21 @@
         <v>0</v>
       </c>
       <c r="H467" s="16" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="I467" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J467" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="K467" s="32" t="s">
-        <v>3</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="K467" s="32"/>
       <c r="L467" s="32" t="s">
         <v>0</v>
       </c>
+      <c r="M467" s="13"/>
       <c r="N467" s="17" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="468" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -16300,17 +16294,15 @@
       <c r="F468" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G468" s="18" t="s">
-        <v>0</v>
-      </c>
+      <c r="G468" s="18"/>
       <c r="H468" s="16" t="s">
-        <v>125</v>
+        <v>512</v>
       </c>
       <c r="I468" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J468" s="32" t="s">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="K468" s="32"/>
       <c r="L468" s="32" t="s">
@@ -16318,10 +16310,10 @@
       </c>
       <c r="M468" s="13"/>
       <c r="N468" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="469" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="469" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A469" s="13"/>
       <c r="B469" s="32"/>
       <c r="C469" s="13" t="s">
@@ -16334,15 +16326,17 @@
       <c r="F469" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G469" s="18"/>
+      <c r="G469" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="H469" s="16" t="s">
-        <v>513</v>
+        <v>344</v>
       </c>
       <c r="I469" s="18" t="s">
         <v>0</v>
       </c>
       <c r="J469" s="32" t="s">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="K469" s="32"/>
       <c r="L469" s="32" t="s">
@@ -16350,12 +16344,11 @@
       </c>
       <c r="M469" s="13"/>
       <c r="N469" s="17" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="470" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A470" s="13"/>
-      <c r="B470" s="32"/>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="470" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B470" s="31"/>
       <c r="C470" s="13" t="s">
         <v>30</v>
       </c>
@@ -16366,167 +16359,134 @@
       <c r="F470" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G470" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H470" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="I470" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J470" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="K470" s="32"/>
-      <c r="L470" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="M470" s="13"/>
-      <c r="N470" s="17" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="471" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B471" s="31"/>
-      <c r="C471" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D471" s="13"/>
-      <c r="E471" s="51">
-        <v>1</v>
-      </c>
-      <c r="F471" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G471" s="15"/>
-      <c r="H471" s="20" t="s">
+      <c r="G470" s="15"/>
+      <c r="H470" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="I471" s="15" t="s">
+      <c r="I470" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="J471" s="31" t="s">
+      <c r="J470" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="K471" s="31"/>
-      <c r="L471" s="31" t="s">
+      <c r="K470" s="31"/>
+      <c r="L470" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="N471" s="14" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="473" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B473" s="31"/>
-      <c r="C473" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="D473" s="13"/>
-      <c r="E473" s="50">
-        <v>0</v>
-      </c>
-      <c r="F473" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G473" s="15"/>
-      <c r="H473" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="I473" s="15"/>
-      <c r="J473" s="31" t="s">
+      <c r="N470" s="14" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="472" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B472" s="31"/>
+      <c r="C472" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="D472" s="13"/>
+      <c r="E472" s="50">
+        <v>0</v>
+      </c>
+      <c r="F472" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G472" s="15"/>
+      <c r="H472" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="I472" s="15"/>
+      <c r="J472" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K473" s="31"/>
-      <c r="L473" s="31"/>
-      <c r="N473" s="14"/>
+      <c r="K472" s="31"/>
+      <c r="L472" s="31"/>
+      <c r="N472" s="14"/>
+    </row>
+    <row r="473" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B473" s="32"/>
+      <c r="C473" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="E473" s="51">
+        <v>1</v>
+      </c>
+      <c r="F473" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="G473" s="18"/>
+      <c r="H473" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="I473" s="18"/>
+      <c r="J473" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K473" s="32"/>
+      <c r="L473" s="32"/>
+      <c r="N473" s="17" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="474" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B474" s="32"/>
       <c r="C474" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E474" s="51">
         <v>1</v>
       </c>
       <c r="F474" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G474" s="18"/>
       <c r="H474" s="16" t="s">
-        <v>125</v>
+        <v>512</v>
       </c>
       <c r="I474" s="18"/>
       <c r="J474" s="32" t="s">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="K474" s="32"/>
       <c r="L474" s="32"/>
       <c r="N474" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="475" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B475" s="32"/>
-      <c r="C475" s="13" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="475" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B475" s="31"/>
+      <c r="C475" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="E475" s="50">
+        <v>1</v>
+      </c>
+      <c r="F475" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="G475" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H475" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="E475" s="51">
-        <v>1</v>
-      </c>
-      <c r="F475" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="G475" s="18"/>
-      <c r="H475" s="16" t="s">
-        <v>513</v>
-      </c>
-      <c r="I475" s="18"/>
-      <c r="J475" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="K475" s="32"/>
-      <c r="L475" s="32"/>
-      <c r="N475" s="17" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="476" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B476" s="31"/>
-      <c r="C476" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="E476" s="50">
-        <v>1</v>
-      </c>
-      <c r="F476" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="G476" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H476" s="20" t="s">
-        <v>512</v>
-      </c>
-      <c r="I476" s="15" t="s">
+      <c r="I475" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="J476" s="31" t="s">
+      <c r="J475" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="K476" s="31"/>
-      <c r="L476" s="31" t="s">
+      <c r="K475" s="31"/>
+      <c r="L475" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="N476" s="14" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N477" s="44"/>
+      <c r="N475" s="14" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="476" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N476" s="44"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:N477" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:N476" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
